--- a/realestate.xlsx
+++ b/realestate.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -492,7 +492,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
